--- a/data/trans_dic/BARTHEL_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/BARTHEL_R2-Habitat-trans_dic.xlsx
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>95,85%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>91,6%</t>
+          <t>8,4%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>75,31%</t>
+          <t>24,69%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>93,6%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>91,71%</t>
+          <t>8,29%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>73,31%</t>
+          <t>26,69%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>69,55%</t>
+          <t>30,45%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>74,88%</t>
+          <t>25,12%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>93,87%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>81,67%</t>
+          <t>18,33%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>72,32%</t>
+          <t>27,68%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>82,33%</t>
+          <t>17,67%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>79,41; 100,0</t>
+          <t>0,0; 22,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>75,12; 100,0</t>
+          <t>0,0; 25,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>54,37; 91,03</t>
+          <t>10,67; 45,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>83,51; 97,66</t>
+          <t>2,23; 15,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>75,47; 100,0</t>
+          <t>0,0; 24,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>52,1; 87,36</t>
+          <t>12,64; 47,9</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>43,37; 86,78</t>
+          <t>13,22; 56,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>65,54; 82,58</t>
+          <t>17,4; 34,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>83,83; 100,0</t>
+          <t>1,96; 16,4</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>68,76; 92,65</t>
+          <t>9,07; 32,54</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>56,7; 83,45</t>
+          <t>15,35; 43,29</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>76,05; 87,45</t>
+          <t>11,99; 24,96</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>87,45%</t>
+          <t>12,55%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>91,09%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>87,33%</t>
+          <t>12,67%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>84,41%</t>
+          <t>15,59%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>88,76%</t>
+          <t>11,24%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>75,41%</t>
+          <t>24,59%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>77,86%</t>
+          <t>22,14%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>74,11%</t>
+          <t>25,89%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>88,22%</t>
+          <t>11,78%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>82,55%</t>
+          <t>17,45%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>81,97%</t>
+          <t>18,03%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>78,82%</t>
+          <t>21,18%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>79,11; 93,07</t>
+          <t>6,52; 20,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>84,45; 95,54</t>
+          <t>4,53; 16,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>80,35; 92,5</t>
+          <t>7,51; 19,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>79,11; 89,19</t>
+          <t>11,15; 21,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>82,06; 93,24</t>
+          <t>6,76; 17,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>67,74; 82,66</t>
+          <t>18,27; 32,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>69,79; 84,33</t>
+          <t>15,6; 30,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>68,85; 78,72</t>
+          <t>21,25; 31,33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>83,01; 92,15</t>
+          <t>7,67; 16,6</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>77,32; 87,02</t>
+          <t>13,28; 22,57</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>77,17; 86,45</t>
+          <t>13,53; 23,27</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>74,83; 82,4</t>
+          <t>17,63; 25,25</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>91,96%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>79,07%</t>
+          <t>20,93%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>87,23%</t>
+          <t>12,77%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>84,15%</t>
+          <t>15,85%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>85,09%</t>
+          <t>14,91%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>67,5%</t>
+          <t>32,5%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>81,5%</t>
+          <t>18,5%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>76,13%</t>
+          <t>23,87%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>88,14%</t>
+          <t>11,86%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>72,67%</t>
+          <t>27,33%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>83,96%</t>
+          <t>16,04%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>79,49%</t>
+          <t>20,51%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>87,65; 95,93</t>
+          <t>4,57; 13,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>71,1; 85,73</t>
+          <t>14,86; 28,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>82,19; 91,62</t>
+          <t>8,07; 18,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>78,67; 88,28</t>
+          <t>11,83; 21,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>78,61; 90,36</t>
+          <t>9,87; 20,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>60,63; 74,1</t>
+          <t>25,9; 39,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>75,3; 86,79</t>
+          <t>13,12; 24,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>72,06; 80,3</t>
+          <t>19,8; 28,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>83,84; 91,37</t>
+          <t>8,51; 15,9</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>67,79; 77,27</t>
+          <t>22,58; 32,7</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>80,13; 87,65</t>
+          <t>12,15; 20,2</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>76,27; 82,24</t>
+          <t>17,76; 23,85</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>96,44%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>85,36%</t>
+          <t>14,64%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>89,19%</t>
+          <t>10,81%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>88,43%</t>
+          <t>11,57%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>88,3%</t>
+          <t>11,7%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>71,55%</t>
+          <t>28,45%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>74,38%</t>
+          <t>25,62%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>87,08%</t>
+          <t>12,92%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>91,84%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>77,4%</t>
+          <t>22,6%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>80,99%</t>
+          <t>19,01%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>87,55%</t>
+          <t>12,45%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>91,63; 99,12</t>
+          <t>0,92; 8,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>75,53; 92,46</t>
+          <t>8,14; 24,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>81,84; 93,82</t>
+          <t>5,69; 17,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>82,91; 92,76</t>
+          <t>7,32; 17,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>81,4; 93,3</t>
+          <t>6,83; 17,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>63,94; 79,47</t>
+          <t>21,79; 37,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>66,35; 82,2</t>
+          <t>18,52; 33,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>77,44; 95,47</t>
+          <t>4,76; 23,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>87,77; 94,91</t>
+          <t>4,89; 12,23</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>71,4; 82,45</t>
+          <t>16,91; 28,74</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>75,03; 85,57</t>
+          <t>13,99; 24,51</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>82,13; 94,25</t>
+          <t>5,33; 18,01</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>91,08%</t>
+          <t>8,92%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>85,39%</t>
+          <t>14,61%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>90,46%</t>
+          <t>9,54%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>87,99%</t>
+          <t>12,01%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>84,73%</t>
+          <t>15,27%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>80,07%</t>
+          <t>19,93%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>78,86%</t>
+          <t>21,14%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>77,84%</t>
+          <t>22,16%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>87,25%</t>
+          <t>12,75%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>82,19%</t>
+          <t>17,81%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>83,71%</t>
+          <t>16,29%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>82,07%</t>
+          <t>17,93%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>85,93; 95,14</t>
+          <t>5,17; 14,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>78,18; 90,83</t>
+          <t>9,11; 22,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>85,17; 93,93</t>
+          <t>6,13; 14,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>84,23; 91,14</t>
+          <t>8,72; 15,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>79,37; 89,45</t>
+          <t>10,56; 20,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>74,51; 84,65</t>
+          <t>15,35; 25,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>72,97; 84,74</t>
+          <t>15,68; 27,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>73,67; 81,29</t>
+          <t>18,29; 25,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>83,32; 90,55</t>
+          <t>9,61; 16,93</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>77,99; 85,81</t>
+          <t>14,27; 22,2</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>79,73; 87,5</t>
+          <t>12,26; 20,52</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>79,31; 84,86</t>
+          <t>15,33; 20,79</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>92,06%</t>
+          <t>7,94%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>85,07%</t>
+          <t>14,93%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>88,15%</t>
+          <t>11,85%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>86,73%</t>
+          <t>13,27%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>86,54%</t>
+          <t>13,46%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>74,1%</t>
+          <t>25,9%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>78,31%</t>
+          <t>21,69%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>79,31%</t>
+          <t>20,69%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>88,89%</t>
+          <t>11,11%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>78,81%</t>
+          <t>21,19%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>82,56%</t>
+          <t>17,44%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>82,32%</t>
+          <t>17,68%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>89,27; 93,8</t>
+          <t>5,92; 10,39</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>81,6; 88,02</t>
+          <t>11,89; 18,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>85,45; 90,5</t>
+          <t>9,5; 14,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>84,47; 88,87</t>
+          <t>11,44; 15,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>83,57; 88,85</t>
+          <t>10,99; 16,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>71,01; 77,55</t>
+          <t>22,56; 29,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>74,86; 81,24</t>
+          <t>18,82; 25,13</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>75,93; 85,59</t>
+          <t>14,21; 23,96</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>87,01; 90,64</t>
+          <t>9,27; 12,92</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>76,44; 81,03</t>
+          <t>18,92; 23,65</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>80,27; 84,55</t>
+          <t>15,38; 19,79</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>80,5; 86,02</t>
+          <t>13,94; 19,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/BARTHEL_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/BARTHEL_R2-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,62</t>
+          <t>0,0; 19,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,24</t>
+          <t>0,0; 29,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,67; 45,92</t>
+          <t>8,87; 44,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,53</t>
+          <t>0,0; 24,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,64; 47,9</t>
+          <t>12,36; 48,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,22; 56,63</t>
+          <t>13,09; 56,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,96; 16,4</t>
+          <t>1,98; 16,13</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9,07; 32,54</t>
+          <t>7,12; 30,41</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>15,35; 43,29</t>
+          <t>16,15; 41,55</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,52; 20,82</t>
+          <t>7,25; 20,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,53; 16,44</t>
+          <t>4,65; 16,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,51; 19,16</t>
+          <t>7,8; 19,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,76; 17,94</t>
+          <t>6,05; 18,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,27; 32,76</t>
+          <t>17,3; 32,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,6; 30,65</t>
+          <t>15,89; 30,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,67; 16,6</t>
+          <t>8,03; 16,73</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>13,28; 22,57</t>
+          <t>12,91; 22,48</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,53; 23,27</t>
+          <t>13,63; 22,9</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,57; 13,34</t>
+          <t>4,07; 13,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,86; 28,81</t>
+          <t>14,9; 28,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,07; 18,36</t>
+          <t>8,36; 18,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,87; 20,93</t>
+          <t>9,86; 21,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>25,9; 39,37</t>
+          <t>25,1; 39,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,12; 24,94</t>
+          <t>13,33; 25,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,51; 15,9</t>
+          <t>8,69; 15,93</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>22,58; 32,7</t>
+          <t>22,44; 32,49</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>12,15; 20,2</t>
+          <t>11,9; 20,27</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,92; 8,6</t>
+          <t>0,93; 8,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,14; 24,26</t>
+          <t>7,68; 25,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,69; 17,05</t>
+          <t>6,19; 17,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,83; 17,8</t>
+          <t>7,17; 18,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,79; 37,38</t>
+          <t>21,02; 36,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,52; 33,98</t>
+          <t>17,78; 34,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,89; 12,23</t>
+          <t>5,16; 12,47</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>16,91; 28,74</t>
+          <t>17,29; 29,12</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,99; 24,51</t>
+          <t>14,35; 25,09</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,17; 14,23</t>
+          <t>4,88; 14,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,11; 22,28</t>
+          <t>9,56; 21,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,13; 14,79</t>
+          <t>6,07; 15,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,56; 20,51</t>
+          <t>10,57; 21,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,35; 25,21</t>
+          <t>15,01; 25,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,68; 27,35</t>
+          <t>15,81; 27,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,61; 16,93</t>
+          <t>9,63; 16,56</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>14,27; 22,2</t>
+          <t>14,29; 22,22</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>12,26; 20,52</t>
+          <t>12,62; 20,1</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,92; 10,39</t>
+          <t>5,96; 10,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,89; 18,5</t>
+          <t>11,73; 18,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,5; 14,6</t>
+          <t>9,7; 14,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,99; 16,24</t>
+          <t>11,12; 16,32</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>22,56; 29,13</t>
+          <t>22,85; 29,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,82; 25,13</t>
+          <t>18,61; 24,98</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9,27; 12,92</t>
+          <t>9,39; 13,09</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>18,92; 23,65</t>
+          <t>18,81; 23,57</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>15,38; 19,79</t>
+          <t>15,43; 19,67</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">

--- a/data/trans_dic/BARTHEL_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/BARTHEL_R2-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con dependencia (Barthel)</t>
+          <t>Población con dependencia funcional, al menos moderada, para actividades básicas de la vida diaria (Barthel)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,99</t>
+          <t>0,0; 20,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,68</t>
+          <t>0,0; 24,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,87; 44,28</t>
+          <t>8,97; 45,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,23; 15,62</t>
+          <t>2,34; 16,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,43</t>
+          <t>0,0; 24,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,36; 48,95</t>
+          <t>12,64; 47,9</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,09; 56,55</t>
+          <t>13,22; 56,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,4; 34,28</t>
+          <t>17,42; 34,46</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,98; 16,13</t>
+          <t>0,0; 16,17</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,12; 30,41</t>
+          <t>7,35; 31,24</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>16,15; 41,55</t>
+          <t>16,55; 43,3</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>11,99; 24,96</t>
+          <t>12,55; 23,95</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,25; 20,77</t>
+          <t>6,93; 20,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,65; 16,21</t>
+          <t>4,46; 15,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,8; 19,0</t>
+          <t>7,5; 19,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,15; 21,87</t>
+          <t>10,81; 20,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,05; 18,44</t>
+          <t>6,76; 17,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,3; 32,52</t>
+          <t>17,34; 32,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,89; 30,37</t>
+          <t>15,67; 30,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,25; 31,33</t>
+          <t>21,28; 31,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,03; 16,73</t>
+          <t>7,85; 16,99</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,91; 22,48</t>
+          <t>12,98; 22,68</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,63; 22,9</t>
+          <t>13,55; 22,83</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,63; 25,25</t>
+          <t>17,6; 25,17</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,07; 13,05</t>
+          <t>4,07; 12,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,9; 28,31</t>
+          <t>14,27; 28,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,36; 18,85</t>
+          <t>8,38; 17,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,83; 21,33</t>
+          <t>11,72; 21,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,86; 21,24</t>
+          <t>9,64; 21,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>25,1; 39,97</t>
+          <t>25,9; 39,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,33; 25,5</t>
+          <t>13,21; 24,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,8; 28,3</t>
+          <t>19,7; 27,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,69; 15,93</t>
+          <t>8,63; 16,16</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>22,44; 32,49</t>
+          <t>22,73; 32,21</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,9; 20,27</t>
+          <t>12,35; 19,87</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,76; 23,85</t>
+          <t>17,76; 23,73</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,93; 8,87</t>
+          <t>0,88; 8,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,68; 25,34</t>
+          <t>7,54; 24,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,19; 17,68</t>
+          <t>6,18; 18,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,32; 17,18</t>
+          <t>7,24; 17,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,17; 18,76</t>
+          <t>6,7; 18,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,02; 36,99</t>
+          <t>20,53; 36,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,78; 34,61</t>
+          <t>17,8; 33,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,76; 23,01</t>
+          <t>4,53; 22,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,16; 12,47</t>
+          <t>5,09; 12,23</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,29; 29,12</t>
+          <t>17,55; 28,6</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,35; 25,09</t>
+          <t>14,43; 24,97</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,33; 18,01</t>
+          <t>5,75; 17,87</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,88; 14,11</t>
+          <t>4,86; 14,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,56; 21,69</t>
+          <t>9,17; 21,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,07; 15,04</t>
+          <t>6,07; 14,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,72; 15,95</t>
+          <t>8,86; 15,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,57; 21,33</t>
+          <t>10,55; 20,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,01; 25,17</t>
+          <t>15,35; 25,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,81; 27,6</t>
+          <t>15,26; 27,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18,29; 25,98</t>
+          <t>18,71; 26,33</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,63; 16,56</t>
+          <t>9,45; 16,68</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>14,29; 22,22</t>
+          <t>14,19; 22,01</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>12,62; 20,1</t>
+          <t>12,5; 20,27</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>15,33; 20,79</t>
+          <t>15,14; 20,69</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,96; 10,58</t>
+          <t>6,2; 10,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,73; 18,75</t>
+          <t>11,98; 18,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,7; 14,88</t>
+          <t>9,5; 14,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,44; 15,35</t>
+          <t>11,13; 15,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>11,12; 16,32</t>
+          <t>11,15; 16,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>22,85; 29,4</t>
+          <t>22,45; 28,99</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,61; 24,98</t>
+          <t>18,76; 25,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>14,21; 23,96</t>
+          <t>14,41; 24,07</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9,39; 13,09</t>
+          <t>9,36; 12,99</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>18,81; 23,57</t>
+          <t>18,97; 23,56</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>15,43; 19,67</t>
+          <t>15,45; 19,73</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>13,94; 19,46</t>
+          <t>13,98; 19,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/BARTHEL_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/BARTHEL_R2-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>89,38%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>91,16%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>24,69%</t>
+          <t>85,42%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>86,37%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>89,24%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>26,69%</t>
+          <t>75,09%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>30,45%</t>
+          <t>76,74%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>25,12%</t>
+          <t>74,52%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>89,3%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>18,33%</t>
+          <t>82,41%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>27,68%</t>
+          <t>80,57%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>17,67%</t>
+          <t>79,88%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,59</t>
+          <t>82,87; 93,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,88</t>
+          <t>85,46; 95,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,97; 45,63</t>
+          <t>78,76; 90,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,34; 16,49</t>
+          <t>81,62; 90,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,53</t>
+          <t>82,68; 93,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,64; 47,9</t>
+          <t>68,44; 81,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,22; 56,63</t>
+          <t>70,0; 83,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,42; 34,46</t>
+          <t>70,0; 77,97</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,17</t>
+          <t>84,66; 92,49</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,35; 31,24</t>
+          <t>77,02; 86,4</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>16,55; 43,3</t>
+          <t>75,56; 84,83</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>12,55; 23,95</t>
+          <t>76,43; 82,83</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>12,55%</t>
+          <t>91,96%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,91%</t>
+          <t>79,07%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,67%</t>
+          <t>87,23%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,59%</t>
+          <t>84,34%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>11,24%</t>
+          <t>85,09%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>24,59%</t>
+          <t>67,5%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>22,14%</t>
+          <t>81,5%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>25,89%</t>
+          <t>76,15%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>11,78%</t>
+          <t>88,14%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>17,45%</t>
+          <t>72,67%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>18,03%</t>
+          <t>83,96%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>21,18%</t>
+          <t>79,63%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,93; 20,89</t>
+          <t>87,65; 95,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,46; 15,55</t>
+          <t>71,1; 85,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,5; 19,65</t>
+          <t>82,19; 91,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,81; 20,89</t>
+          <t>78,97; 88,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,76; 17,94</t>
+          <t>78,61; 90,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,34; 32,26</t>
+          <t>60,63; 74,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,67; 30,21</t>
+          <t>75,3; 86,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,28; 31,15</t>
+          <t>72,14; 80,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,85; 16,99</t>
+          <t>83,84; 91,37</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,98; 22,68</t>
+          <t>67,79; 77,27</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,55; 22,83</t>
+          <t>80,13; 87,65</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,6; 25,17</t>
+          <t>76,58; 82,43</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>96,44%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>20,93%</t>
+          <t>85,36%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,77%</t>
+          <t>89,19%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>15,85%</t>
+          <t>88,56%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>14,91%</t>
+          <t>88,3%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>32,5%</t>
+          <t>71,55%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>18,5%</t>
+          <t>74,38%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>23,87%</t>
+          <t>91,04%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>11,86%</t>
+          <t>91,84%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>27,33%</t>
+          <t>77,4%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>16,04%</t>
+          <t>80,99%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>20,51%</t>
+          <t>90,36%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,07; 12,35</t>
+          <t>91,63; 99,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,27; 28,9</t>
+          <t>75,53; 92,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,38; 17,81</t>
+          <t>81,84; 93,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,72; 21,33</t>
+          <t>83,26; 92,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,64; 21,39</t>
+          <t>81,4; 93,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>25,9; 39,37</t>
+          <t>63,94; 79,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,21; 24,7</t>
+          <t>66,35; 82,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,7; 27,94</t>
+          <t>77,92; 97,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,63; 16,16</t>
+          <t>87,77; 94,91</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>22,73; 32,21</t>
+          <t>71,4; 82,45</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>12,35; 19,87</t>
+          <t>75,03; 85,57</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,76; 23,73</t>
+          <t>82,58; 96,62</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>91,08%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,64%</t>
+          <t>85,39%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,81%</t>
+          <t>90,46%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>88,08%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,7%</t>
+          <t>84,73%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>28,45%</t>
+          <t>80,07%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>25,62%</t>
+          <t>78,86%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>78,49%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>87,25%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>22,6%</t>
+          <t>82,19%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>83,71%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>82,6%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,88; 8,37</t>
+          <t>85,93; 95,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,54; 24,47</t>
+          <t>78,18; 90,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,18; 18,16</t>
+          <t>85,17; 93,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,24; 17,09</t>
+          <t>84,37; 91,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,7; 18,6</t>
+          <t>79,37; 89,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,53; 36,06</t>
+          <t>74,51; 84,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,8; 33,65</t>
+          <t>72,97; 84,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,53; 22,56</t>
+          <t>74,68; 81,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,09; 12,23</t>
+          <t>83,32; 90,55</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,55; 28,6</t>
+          <t>77,99; 85,81</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,43; 24,97</t>
+          <t>79,73; 87,5</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,75; 17,87</t>
+          <t>79,93; 85,26</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>92,06%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>14,61%</t>
+          <t>85,07%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9,54%</t>
+          <t>88,15%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>86,87%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>15,27%</t>
+          <t>86,54%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>19,93%</t>
+          <t>74,1%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>21,14%</t>
+          <t>78,31%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>22,16%</t>
+          <t>81,7%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>12,75%</t>
+          <t>88,89%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>17,81%</t>
+          <t>78,81%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>16,29%</t>
+          <t>82,56%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>17,93%</t>
+          <t>83,7%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,86; 14,07</t>
+          <t>89,27; 93,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,17; 21,82</t>
+          <t>81,6; 88,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,07; 14,83</t>
+          <t>85,45; 90,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,86; 15,77</t>
+          <t>84,71; 89,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,55; 20,63</t>
+          <t>83,57; 88,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,35; 25,49</t>
+          <t>71,01; 77,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,26; 27,03</t>
+          <t>74,86; 81,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18,71; 26,33</t>
+          <t>76,46; 89,86</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,45; 16,68</t>
+          <t>87,01; 90,64</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>14,19; 22,01</t>
+          <t>76,44; 81,03</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>12,5; 20,27</t>
+          <t>80,27; 84,55</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>15,14; 20,69</t>
+          <t>81,1; 89,19</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>7,94%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>14,93%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>11,85%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>13,27%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>13,46%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>25,9%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>21,69%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>20,69%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>11,11%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>21,19%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>17,44%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>17,68%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>6,2; 10,73</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>11,98; 18,4</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>9,5; 14,55</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>11,13; 15,53</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>11,15; 16,43</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>22,45; 28,99</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>18,76; 25,14</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>14,41; 24,07</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>9,36; 12,99</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>18,97; 23,56</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>15,45; 19,73</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>13,98; 19,5</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/BARTHEL_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/BARTHEL_R2-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>82,87; 93,67</t>
+          <t>83,2; 94,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>85,46; 95,06</t>
+          <t>85,72; 95,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>78,76; 90,49</t>
+          <t>78,91; 90,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>81,62; 90,34</t>
+          <t>81,75; 90,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>82,68; 93,78</t>
+          <t>83,38; 93,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>68,44; 81,25</t>
+          <t>68,05; 81,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>70,0; 83,18</t>
+          <t>68,3; 82,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>70,0; 77,97</t>
+          <t>69,94; 78,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>84,66; 92,49</t>
+          <t>85,15; 92,93</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>77,02; 86,4</t>
+          <t>77,9; 86,97</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>75,56; 84,83</t>
+          <t>75,51; 84,87</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>76,43; 82,83</t>
+          <t>76,78; 82,74</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>87,65; 95,93</t>
+          <t>86,33; 95,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>71,1; 85,73</t>
+          <t>71,51; 85,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>82,19; 91,62</t>
+          <t>81,54; 91,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>78,97; 88,34</t>
+          <t>79,76; 88,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>78,61; 90,36</t>
+          <t>79,03; 90,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>60,63; 74,1</t>
+          <t>60,67; 74,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>75,3; 86,79</t>
+          <t>75,02; 86,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>72,14; 80,26</t>
+          <t>71,84; 80,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>83,84; 91,37</t>
+          <t>84,68; 91,55</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>67,79; 77,27</t>
+          <t>67,15; 77,33</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>80,13; 87,65</t>
+          <t>79,78; 88,0</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>76,58; 82,43</t>
+          <t>76,49; 82,39</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>91,63; 99,12</t>
+          <t>91,53; 99,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>75,53; 92,46</t>
+          <t>74,26; 92,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>81,84; 93,82</t>
+          <t>82,09; 93,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>83,26; 92,94</t>
+          <t>83,36; 92,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>81,4; 93,3</t>
+          <t>81,92; 93,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>63,94; 79,47</t>
+          <t>62,13; 78,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>66,35; 82,2</t>
+          <t>65,93; 81,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>77,92; 97,45</t>
+          <t>78,09; 97,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>87,77; 94,91</t>
+          <t>87,87; 94,88</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>71,4; 82,45</t>
+          <t>70,83; 82,69</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>75,03; 85,57</t>
+          <t>75,43; 86,07</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>82,58; 96,62</t>
+          <t>82,51; 96,72</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>85,93; 95,14</t>
+          <t>85,86; 95,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>78,18; 90,83</t>
+          <t>78,54; 90,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>85,17; 93,93</t>
+          <t>85,69; 94,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>84,37; 91,27</t>
+          <t>84,13; 91,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>79,37; 89,45</t>
+          <t>79,16; 89,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>74,51; 84,65</t>
+          <t>74,69; 84,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>72,97; 84,74</t>
+          <t>72,68; 84,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>74,68; 81,78</t>
+          <t>74,76; 82,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>83,32; 90,55</t>
+          <t>82,83; 90,7</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>77,99; 85,81</t>
+          <t>77,79; 85,99</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>79,73; 87,5</t>
+          <t>79,67; 87,54</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>79,93; 85,26</t>
+          <t>79,99; 85,48</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>89,27; 93,8</t>
+          <t>89,41; 94,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>81,6; 88,02</t>
+          <t>81,53; 88,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>85,45; 90,5</t>
+          <t>85,61; 90,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>84,71; 89,02</t>
+          <t>84,75; 88,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>83,57; 88,85</t>
+          <t>83,56; 89,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>71,01; 77,55</t>
+          <t>70,66; 77,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>74,86; 81,24</t>
+          <t>74,82; 81,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>76,46; 89,86</t>
+          <t>76,29; 89,44</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>87,01; 90,64</t>
+          <t>86,81; 90,5</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>76,44; 81,03</t>
+          <t>76,52; 81,09</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>80,27; 84,55</t>
+          <t>80,02; 84,51</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>81,1; 89,19</t>
+          <t>80,97; 88,5</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con dependencia funcional, al menos moderada, para actividades básicas de la vida diaria (Barthel)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>544</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>102778</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>127217</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>116802</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>126813</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>133448</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>125246</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>133052</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>132533</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>236225</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>252463</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>249854</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>259346</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>95669; 108340</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>119616; 133018</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>107892; 123984</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>120027; 132613</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>124686; 139886</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>113503; 136188</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>118423; 143064</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>124387; 139604</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>225244; 245812</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>238623; 266411</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>234169; 263212</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>249273; 268631</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>134157</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>122456</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>143877</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>135042</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>155442</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>129206</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>178618</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>165214</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>289598</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>251662</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>322495</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>300256</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>125943; 139296</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>110758; 133019</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>134487; 151359</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>127709; 142038</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>144370; 164688</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>116125; 141787</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>164412; 190184</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>155860; 173634</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>278248; 300801</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>232530; 267780</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>306434; 338005</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>288400; 310670</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>100659</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>88430</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>102599</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>121290</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>119954</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>100896</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>106064</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>327445</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>220613</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>189326</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>208663</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>448735</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>95534; 103443</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>76931; 95924</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>94432; 107841</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>114156; 127075</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>111292; 126694</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>87619; 110383</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>94008; 116512</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>280874; 350805</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>211089; 227932</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>173273; 202274</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>194322; 221736</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>409755; 480316</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>696</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>124972</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>137998</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>157952</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>180063</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>176904</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>195178</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>191448</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>214568</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>301876</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>333176</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>349401</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>394632</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>117811; 130707</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>126927; 146468</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>149636; 164770</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>171985; 186682</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>165271; 186253</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>182057; 207038</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>176452; 205091</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>204359; 224373</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>286576; 313808</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>315337; 348589</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>332534; 365386</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>382159; 408422</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>432</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>578</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>518</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>522</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1310</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>950</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1072</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>2194</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>462565</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>476102</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>521230</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>563210</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>585747</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>550525</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>609182</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>839761</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1048312</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1026627</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1130412</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1402970</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>449238; 472568</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>456251; 494339</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>506213; 535239</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>549445; 576379</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>565581; 602613</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>524999; 575445</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>582046; 633231</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>784166; 919250</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1023807; 1067262</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>996815; 1056237</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1095662; 1157194</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1357089; 1483384</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>